--- a/selfAssessment_Sprint3.xlsx
+++ b/selfAssessment_Sprint3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmorais/lei-24-s2-1dm-g132-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaosilva/Documents/GitHub/lei-24-s2-1dm-g132/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7058ED37-7BC1-5E47-9B59-7F4D6D3116A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA41212-DF95-8C45-A6E5-2F6125FA4013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="880" windowWidth="26700" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4640" yWindow="880" windowWidth="26700" windowHeight="17760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
   <si>
     <t>TeamID #</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>List A</t>
-  </si>
-  <si>
-    <t>Student 7</t>
   </si>
   <si>
     <t>Student 8</t>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Documentation: 1221401 Implementation: 1221696</t>
+  </si>
+  <si>
+    <t>1221293 João Silva</t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1482,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1496,14 +1496,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="J9" s="30" t="str">
         <f>C16</f>
-        <v>Student 7</v>
+        <v>1221293 João Silva</v>
       </c>
       <c r="K9" s="30" t="str">
         <f>C17</f>
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="26"/>
@@ -1606,7 +1606,7 @@
     <row r="11" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="56"/>
       <c r="C11" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="53"/>
@@ -1624,7 +1624,7 @@
     <row r="12" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="56"/>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
@@ -1652,7 +1652,7 @@
     <row r="13" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="56"/>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1670,7 +1670,7 @@
     <row r="14" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1688,7 +1688,7 @@
     <row r="15" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="56"/>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1703,28 +1703,40 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="56"/>
       <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="53"/>
+      <c r="J16" s="53">
+        <v>5</v>
+      </c>
       <c r="K16" s="8"/>
-      <c r="L16" s="36" t="e">
+      <c r="L16" s="36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="57"/>
       <c r="C17" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -1760,17 +1772,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H18" s="33" t="e">
+      <c r="H18" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="I18" s="33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J18" s="33" t="e">
+      <c r="J18" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="K18" s="34" t="e">
         <f t="shared" si="1"/>
@@ -1780,7 +1792,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -1796,7 +1808,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -1812,7 +1824,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -1828,7 +1840,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -1858,7 +1870,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -1877,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -1895,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -1913,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -1931,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -1949,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -1967,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -2014,8 +2026,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2028,22 +2040,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="C3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="D3" s="61" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
@@ -2070,22 +2082,22 @@
       <c r="C4" s="64"/>
       <c r="D4" s="62"/>
       <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -2094,426 +2106,438 @@
       <c r="C5" s="64"/>
       <c r="D5" s="62"/>
       <c r="E5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="40"/>
       <c r="E6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="J6" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="18">
         <v>5</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J7" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="40"/>
       <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J8" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="40"/>
       <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="40"/>
       <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J10" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="40"/>
       <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="40"/>
       <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J12" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="40"/>
       <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J13" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="40"/>
       <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J14" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="18">
         <v>4</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J15" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4</v>
+      </c>
       <c r="D16" s="40"/>
       <c r="E16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J16" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="18">
+        <v>4</v>
+      </c>
       <c r="D17" s="40"/>
       <c r="E17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J17" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="40"/>
       <c r="E18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J18" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="18">
         <v>4</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J19" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="18">
+        <v>4</v>
+      </c>
       <c r="D20" s="40"/>
       <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J20" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2522,22 +2546,22 @@
       <c r="C21" s="18"/>
       <c r="D21" s="40"/>
       <c r="E21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J21" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2546,22 +2570,22 @@
       <c r="C22" s="18"/>
       <c r="D22" s="40"/>
       <c r="E22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J22" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2570,22 +2594,22 @@
       <c r="C23" s="18"/>
       <c r="D23" s="40"/>
       <c r="E23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J23" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2594,22 +2618,22 @@
       <c r="C24" s="18"/>
       <c r="D24" s="40"/>
       <c r="E24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J24" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2618,22 +2642,22 @@
       <c r="C25" s="18"/>
       <c r="D25" s="40"/>
       <c r="E25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J25" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2642,22 +2666,22 @@
       <c r="C26" s="18"/>
       <c r="D26" s="40"/>
       <c r="E26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J26" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2666,22 +2690,22 @@
       <c r="C27" s="18"/>
       <c r="D27" s="40"/>
       <c r="E27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J27" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2690,22 +2714,22 @@
       <c r="C28" s="18"/>
       <c r="D28" s="40"/>
       <c r="E28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J28" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2714,48 +2738,48 @@
       <c r="C29" s="18"/>
       <c r="D29" s="40"/>
       <c r="E29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J29" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="40"/>
       <c r="E30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J30" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2764,22 +2788,22 @@
       <c r="C31" s="18"/>
       <c r="D31" s="40"/>
       <c r="E31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J31" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -2788,22 +2812,22 @@
       <c r="C32" s="18"/>
       <c r="D32" s="41"/>
       <c r="E32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="G32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="H32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="J32" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2841,21 +2865,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -3039,31 +3048,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3079,4 +3079,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/selfAssessment_Sprint3.xlsx
+++ b/selfAssessment_Sprint3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaosilva/Documents/GitHub/lei-24-s2-1dm-g132/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jles0\Documentos\ISEP\LEI\2º_semestre\Projeto\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA41212-DF95-8C45-A6E5-2F6125FA4013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F71250-7193-4AD2-AAAD-503143033B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="880" windowWidth="26700" windowHeight="17760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="63">
   <si>
     <t>TeamID #</t>
   </si>
@@ -1482,37 +1482,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="12" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.296875" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" customWidth="1"/>
+    <col min="4" max="12" width="7.796875" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1523,13 +1523,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:13" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="58" t="s">
@@ -1544,7 +1544,7 @@
       <c r="L8" s="59"/>
       <c r="M8" s="60"/>
     </row>
-    <row r="9" spans="1:13" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="106.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="29" t="str">
@@ -1583,27 +1583,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="D10" s="53">
+        <v>4</v>
+      </c>
+      <c r="E10" s="26">
+        <v>4</v>
+      </c>
+      <c r="F10" s="27">
+        <v>4</v>
+      </c>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="27">
+        <v>2</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
+      <c r="J10" s="27">
+        <v>4</v>
+      </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="35" t="e">
+      <c r="L10" s="35">
         <f t="shared" ref="L10:L17" si="0">AVERAGE(D10:K10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="56"/>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1621,7 +1635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="56"/>
       <c r="C12" s="6" t="s">
         <v>42</v>
@@ -1649,7 +1663,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="56"/>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -1667,7 +1681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="56"/>
       <c r="C14" s="6" t="s">
         <v>44</v>
@@ -1685,7 +1699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="56"/>
       <c r="C15" s="6" t="s">
         <v>45</v>
@@ -1703,7 +1717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="56"/>
       <c r="C16" s="6" t="s">
         <v>62</v>
@@ -1733,7 +1747,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="57"/>
       <c r="C17" s="28" t="s">
         <v>6</v>
@@ -1751,38 +1765,38 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="33">
         <f t="shared" ref="D18:K18" si="1">AVERAGE(D10:D17)</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G18" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K18" s="34" t="e">
         <f t="shared" si="1"/>
@@ -1790,7 +1804,7 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1820,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>33</v>
       </c>
@@ -1822,7 +1836,7 @@
       <c r="K21" s="46"/>
       <c r="L21" s="47"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>34</v>
       </c>
@@ -1838,7 +1852,7 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>35</v>
       </c>
@@ -1854,7 +1868,7 @@
       <c r="K23" s="46"/>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -1868,7 +1882,7 @@
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>36</v>
       </c>
@@ -1884,7 +1898,7 @@
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="45">
         <v>0</v>
       </c>
@@ -1902,7 +1916,7 @@
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <v>1</v>
       </c>
@@ -1920,7 +1934,7 @@
       <c r="K27" s="46"/>
       <c r="L27" s="47"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="45">
         <v>2</v>
       </c>
@@ -1938,7 +1952,7 @@
       <c r="K28" s="46"/>
       <c r="L28" s="47"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="45">
         <v>3</v>
       </c>
@@ -1956,7 +1970,7 @@
       <c r="K29" s="46"/>
       <c r="L29" s="47"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <v>4</v>
       </c>
@@ -1974,7 +1988,7 @@
       <c r="K30" s="46"/>
       <c r="L30" s="47"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
         <v>5</v>
       </c>
@@ -1992,7 +2006,7 @@
       <c r="K31" s="46"/>
       <c r="L31" s="47"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2026,25 +2040,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>15</v>
       </c>
@@ -2076,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -2100,7 +2114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -2124,7 +2138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
@@ -2150,7 +2164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
@@ -2180,7 +2194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -2206,7 +2220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -2232,7 +2246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
@@ -2258,7 +2272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>51</v>
       </c>
@@ -2284,12 +2298,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="18">
+        <v>4</v>
+      </c>
       <c r="D12" s="40"/>
       <c r="E12" s="11" t="s">
         <v>25</v>
@@ -2310,12 +2328,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
       <c r="D13" s="40"/>
       <c r="E13" s="11" t="s">
         <v>25</v>
@@ -2336,12 +2358,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="18">
+        <v>4</v>
+      </c>
       <c r="D14" s="40"/>
       <c r="E14" s="11" t="s">
         <v>25</v>
@@ -2362,7 +2388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>55</v>
       </c>
@@ -2392,7 +2418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
@@ -2422,7 +2448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
@@ -2478,7 +2504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2510,7 +2536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2540,7 +2566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2564,7 +2590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2588,7 +2614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2612,7 +2638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2636,7 +2662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2660,7 +2686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2684,7 +2710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2708,7 +2734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2732,7 +2758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2756,7 +2782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
@@ -2782,7 +2808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2806,7 +2832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="39"/>
       <c r="C32" s="18"/>
@@ -2865,6 +2891,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -3048,22 +3089,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3079,28 +3129,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/selfAssessment_Sprint3.xlsx
+++ b/selfAssessment_Sprint3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jles0\Documentos\ISEP\LEI\2º_semestre\Projeto\Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1211199_isep_ipp_pt/Documents/22-23/2semestre/RepoProjetoLapr2GitHub/lei-24-s2-1dm-g132/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F71250-7193-4AD2-AAAD-503143033B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{F2F71250-7193-4AD2-AAAD-503143033B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81264547-9F5C-48CE-A770-467C06AA3821}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="64">
   <si>
     <t>TeamID #</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>1221293 João Silva</t>
+  </si>
+  <si>
+    <t>done with João Silva</t>
   </si>
 </sst>
 </file>
@@ -1482,37 +1485,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.296875" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" customWidth="1"/>
-    <col min="4" max="12" width="7.796875" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="12" width="7.75" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1523,13 +1526,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:13" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="58" t="s">
@@ -1544,7 +1547,7 @@
       <c r="L8" s="59"/>
       <c r="M8" s="60"/>
     </row>
-    <row r="9" spans="1:13" ht="106.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="106.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="29" t="str">
@@ -1583,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="55" t="s">
         <v>5</v>
       </c>
@@ -1617,25 +1620,39 @@
         <v>3.2857142857142856</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="56"/>
       <c r="C11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="53">
+        <v>5</v>
+      </c>
+      <c r="F11" s="24">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4</v>
+      </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="36" t="e">
+      <c r="L11" s="36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="56"/>
       <c r="C12" s="6" t="s">
         <v>42</v>
@@ -1663,7 +1680,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="56"/>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -1681,7 +1698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="56"/>
       <c r="C14" s="6" t="s">
         <v>44</v>
@@ -1699,7 +1716,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="56"/>
       <c r="C15" s="6" t="s">
         <v>45</v>
@@ -1717,7 +1734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="56"/>
       <c r="C16" s="6" t="s">
         <v>62</v>
@@ -1747,7 +1764,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="57"/>
       <c r="C17" s="28" t="s">
         <v>6</v>
@@ -1765,38 +1782,38 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="33">
         <f t="shared" ref="D18:K18" si="1">AVERAGE(D10:D17)</f>
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="G18" s="33">
         <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I18" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J18" s="33">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="K18" s="34" t="e">
         <f t="shared" si="1"/>
@@ -1804,7 +1821,7 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1837,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>33</v>
       </c>
@@ -1836,7 +1853,7 @@
       <c r="K21" s="46"/>
       <c r="L21" s="47"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>34</v>
       </c>
@@ -1852,7 +1869,7 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>35</v>
       </c>
@@ -1868,7 +1885,7 @@
       <c r="K23" s="46"/>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -1882,7 +1899,7 @@
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>36</v>
       </c>
@@ -1898,7 +1915,7 @@
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>0</v>
       </c>
@@ -1916,7 +1933,7 @@
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>1</v>
       </c>
@@ -1934,7 +1951,7 @@
       <c r="K27" s="46"/>
       <c r="L27" s="47"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>2</v>
       </c>
@@ -1952,7 +1969,7 @@
       <c r="K28" s="46"/>
       <c r="L28" s="47"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>3</v>
       </c>
@@ -1970,7 +1987,7 @@
       <c r="K29" s="46"/>
       <c r="L29" s="47"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>4</v>
       </c>
@@ -1988,7 +2005,7 @@
       <c r="K30" s="46"/>
       <c r="L30" s="47"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>5</v>
       </c>
@@ -2006,7 +2023,7 @@
       <c r="K31" s="46"/>
       <c r="L31" s="47"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2040,25 +2057,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>15</v>
       </c>
@@ -2090,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -2114,7 +2131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -2138,12 +2155,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
       <c r="D6" s="40"/>
       <c r="E6" s="20" t="s">
         <v>25</v>
@@ -2164,7 +2185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
@@ -2172,7 +2193,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="11" t="s">
@@ -2194,12 +2215,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="18">
+        <v>4</v>
+      </c>
       <c r="D8" s="40"/>
       <c r="E8" s="11" t="s">
         <v>25</v>
@@ -2220,12 +2245,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
       <c r="D9" s="40"/>
       <c r="E9" s="11" t="s">
         <v>25</v>
@@ -2246,13 +2275,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="18">
+        <v>4</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="E10" s="11" t="s">
         <v>25</v>
       </c>
@@ -2272,12 +2307,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4</v>
+      </c>
       <c r="D11" s="40"/>
       <c r="E11" s="11" t="s">
         <v>25</v>
@@ -2298,7 +2337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>52</v>
       </c>
@@ -2328,7 +2367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>53</v>
       </c>
@@ -2358,7 +2397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
@@ -2388,7 +2427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>55</v>
       </c>
@@ -2418,7 +2457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
@@ -2448,7 +2487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2478,12 +2517,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="18">
+        <v>4</v>
+      </c>
       <c r="D18" s="40"/>
       <c r="E18" s="11" t="s">
         <v>25</v>
@@ -2504,7 +2547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2536,7 +2579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2566,7 +2609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2590,7 +2633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2614,7 +2657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2638,7 +2681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2662,7 +2705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2686,7 +2729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2710,7 +2753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2734,7 +2777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2758,7 +2801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2782,7 +2825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
@@ -2808,7 +2851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2832,7 +2875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="39"/>
       <c r="C32" s="18"/>
@@ -2891,21 +2934,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -3089,31 +3117,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3129,4 +3148,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/selfAssessment_Sprint3.xlsx
+++ b/selfAssessment_Sprint3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1211199_isep_ipp_pt/Documents/22-23/2semestre/RepoProjetoLapr2GitHub/lei-24-s2-1dm-g132/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmorais/lei-24-s2-1dm-g132-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{F2F71250-7193-4AD2-AAAD-503143033B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81264547-9F5C-48CE-A770-467C06AA3821}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C823A-3DB0-214F-9B04-ABA5CC675F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1486,36 +1486,36 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="12" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="12" width="7.6640625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,13 +1526,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="58" t="s">
@@ -1547,7 +1547,7 @@
       <c r="L8" s="59"/>
       <c r="M8" s="60"/>
     </row>
-    <row r="9" spans="1:13" ht="106.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="106.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="29" t="str">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="55" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>3.2857142857142856</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="56"/>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1652,7 +1652,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="56"/>
       <c r="C12" s="6" t="s">
         <v>42</v>
@@ -1680,25 +1680,35 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="56"/>
       <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="53"/>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="53">
+        <v>4</v>
+      </c>
       <c r="H13" s="24"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6">
+        <v>4</v>
+      </c>
       <c r="K13" s="8"/>
-      <c r="L13" s="36" t="e">
+      <c r="L13" s="36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="C14" s="6" t="s">
         <v>44</v>
@@ -1716,7 +1726,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="56"/>
       <c r="C15" s="6" t="s">
         <v>45</v>
@@ -1734,7 +1744,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="56"/>
       <c r="C16" s="6" t="s">
         <v>62</v>
@@ -1764,7 +1774,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="57"/>
       <c r="C17" s="28" t="s">
         <v>6</v>
@@ -1782,26 +1792,26 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="33">
         <f t="shared" ref="D18:K18" si="1">AVERAGE(D10:D17)</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="G18" s="33">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="1"/>
@@ -1813,7 +1823,7 @@
       </c>
       <c r="J18" s="33">
         <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="K18" s="34" t="e">
         <f t="shared" si="1"/>
@@ -1821,7 +1831,7 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
         <v>7</v>
       </c>
@@ -1837,7 +1847,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
         <v>33</v>
       </c>
@@ -1853,7 +1863,7 @@
       <c r="K21" s="46"/>
       <c r="L21" s="47"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>34</v>
       </c>
@@ -1869,7 +1879,7 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
         <v>35</v>
       </c>
@@ -1885,7 +1895,7 @@
       <c r="K23" s="46"/>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -1899,7 +1909,7 @@
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
         <v>36</v>
       </c>
@@ -1915,7 +1925,7 @@
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45">
         <v>0</v>
       </c>
@@ -1933,7 +1943,7 @@
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45">
         <v>1</v>
       </c>
@@ -1951,7 +1961,7 @@
       <c r="K27" s="46"/>
       <c r="L27" s="47"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45">
         <v>2</v>
       </c>
@@ -1969,7 +1979,7 @@
       <c r="K28" s="46"/>
       <c r="L28" s="47"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45">
         <v>3</v>
       </c>
@@ -1987,7 +1997,7 @@
       <c r="K29" s="46"/>
       <c r="L29" s="47"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45">
         <v>4</v>
       </c>
@@ -2005,7 +2015,7 @@
       <c r="K30" s="46"/>
       <c r="L30" s="47"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45">
         <v>5</v>
       </c>
@@ -2023,7 +2033,7 @@
       <c r="K31" s="46"/>
       <c r="L31" s="47"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2061,21 +2071,21 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>15</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -2131,7 +2141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -2155,7 +2165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
@@ -2215,7 +2225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -2245,7 +2255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -2275,7 +2285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
@@ -2307,7 +2317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>51</v>
       </c>
@@ -2337,7 +2347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>52</v>
       </c>
@@ -2367,7 +2377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>53</v>
       </c>
@@ -2397,7 +2407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
@@ -2427,7 +2437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>55</v>
       </c>
@@ -2457,7 +2467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
@@ -2487,7 +2497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2517,7 +2527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2579,7 +2589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2633,7 +2643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2657,7 +2667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2681,7 +2691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2705,7 +2715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2729,7 +2739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2753,7 +2763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2777,7 +2787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2801,7 +2811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2825,7 +2835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
@@ -2851,7 +2861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2875,7 +2885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="39"/>
       <c r="C32" s="18"/>
@@ -2934,6 +2944,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -3117,22 +3142,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3148,28 +3182,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/selfAssessment_Sprint3.xlsx
+++ b/selfAssessment_Sprint3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmorais/lei-24-s2-1dm-g132-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C823A-3DB0-214F-9B04-ABA5CC675F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF9981-96F1-4786-8A4E-1DB2AD68E9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1485,37 +1485,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="12" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="12" width="7.625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,13 +1526,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="58" t="s">
@@ -1547,7 +1547,7 @@
       <c r="L8" s="59"/>
       <c r="M8" s="60"/>
     </row>
-    <row r="9" spans="1:13" ht="106.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="106.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="29" t="str">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="55" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>3.2857142857142856</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="56"/>
       <c r="C11" s="25" t="s">
         <v>41</v>
@@ -1652,7 +1652,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="56"/>
       <c r="C12" s="6" t="s">
         <v>42</v>
@@ -1680,7 +1680,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="56"/>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -1708,43 +1708,55 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="56"/>
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="53"/>
+      <c r="H14" s="53">
+        <v>3</v>
+      </c>
       <c r="I14" s="24"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6">
+        <v>5</v>
+      </c>
       <c r="K14" s="8"/>
-      <c r="L14" s="36" t="e">
+      <c r="L14" s="36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="56"/>
       <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="53"/>
+      <c r="I15" s="53">
+        <v>4</v>
+      </c>
       <c r="J15" s="24"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="36" t="e">
+      <c r="L15" s="36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="56"/>
       <c r="C16" s="6" t="s">
         <v>62</v>
@@ -1774,7 +1786,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="57"/>
       <c r="C17" s="28" t="s">
         <v>6</v>
@@ -1792,7 +1804,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="32" t="s">
         <v>4</v>
@@ -1803,11 +1815,11 @@
       </c>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.7142857142857144</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G18" s="33">
         <f t="shared" si="1"/>
@@ -1815,15 +1827,15 @@
       </c>
       <c r="H18" s="33">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>3.25</v>
       </c>
       <c r="I18" s="33">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="J18" s="33">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K18" s="34" t="e">
         <f t="shared" si="1"/>
@@ -1831,7 +1843,7 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1859,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>33</v>
       </c>
@@ -1863,7 +1875,7 @@
       <c r="K21" s="46"/>
       <c r="L21" s="47"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>34</v>
       </c>
@@ -1879,7 +1891,7 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +1907,7 @@
       <c r="K23" s="46"/>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -1909,7 +1921,7 @@
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>36</v>
       </c>
@@ -1925,7 +1937,7 @@
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>0</v>
       </c>
@@ -1943,7 +1955,7 @@
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>1</v>
       </c>
@@ -1961,7 +1973,7 @@
       <c r="K27" s="46"/>
       <c r="L27" s="47"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>2</v>
       </c>
@@ -1979,7 +1991,7 @@
       <c r="K28" s="46"/>
       <c r="L28" s="47"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>3</v>
       </c>
@@ -1997,7 +2009,7 @@
       <c r="K29" s="46"/>
       <c r="L29" s="47"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>4</v>
       </c>
@@ -2015,7 +2027,7 @@
       <c r="K30" s="46"/>
       <c r="L30" s="47"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>5</v>
       </c>
@@ -2033,7 +2045,7 @@
       <c r="K31" s="46"/>
       <c r="L31" s="47"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2067,25 +2079,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>15</v>
       </c>
@@ -2117,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -2141,7 +2153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -2165,7 +2177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
@@ -2195,7 +2207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -2255,7 +2267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
@@ -2317,7 +2329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>51</v>
       </c>
@@ -2347,7 +2359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>52</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>53</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>55</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2527,7 +2539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2643,7 +2655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2667,7 +2679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2691,7 +2703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2715,7 +2727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2739,7 +2751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2763,7 +2775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2787,7 +2799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2811,7 +2823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2835,7 +2847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2885,7 +2897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="39"/>
       <c r="C32" s="18"/>
@@ -2944,12 +2956,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2958,7 +2964,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -3142,23 +3148,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3166,7 +3162,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3182,4 +3178,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>